--- a/medicine/Œil et vue/Paupière/Paupière.xlsx
+++ b/medicine/Œil et vue/Paupière/Paupière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paupi%C3%A8re</t>
+          <t>Paupière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les paupières sont des plaques de peau mobiles se rabattant sur les yeux, les protégeant des agressions externes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paupi%C3%A8re</t>
+          <t>Paupière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les paupières jouent plusieurs rôles vis-à-vis des yeux :
 protéger les yeux de certaines agressions comme les projections de poussières ;
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paupi%C3%A8re</t>
+          <t>Paupière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez l'Humain
-Les paupières sont actionnées par des muscles qui permettent l'ouverture et la fermeture :
+          <t>Chez l'Humain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les paupières sont actionnées par des muscles qui permettent l'ouverture et la fermeture :
 le muscle orbiculaire sert à l'occlusion (fermeture) ; c'est un muscle strié à fibres circulaires. Il s'insère sur les commissures externe et interne de l’œil.
 Le muscle releveur de la paupière supérieure joue un rôle très important dans l'ouverture de la paupière.
 Le muscle de Müller est également un muscle lié à l'ouverture de la paupière supérieure. C'est un muscle lisse qui est tendu de la surface inférieure du muscle releveur de la paupière supérieure au bord supérieur du tarse supérieur.
 Chez l'humain, les paupières sont deux voiles musculo-membraneux mobiles qui recouvrent et protègent la partie antérieure du globe de l'œil. Les paupières sont séparées par l'ouverture palpébrale qui mesure en moyenne 30 mm de long sur 10 mm de haut.
 Elles sont constituées par sept couches superposées :
-une peau fine : épiderme très mince (0,5 mm d'épaisseur[1]), aussi fin que l'épiderme du tympan ;
+une peau fine : épiderme très mince (0,5 mm d'épaisseur), aussi fin que l'épiderme du tympan ;
 une couche de tissu cellulaire lâche ;
 le muscle orbiculaire des paupières ;
 une deuxième couche de tissu cellulaire lâche ;
